--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C7F65-F809-4FFF-AA21-09C2D708F3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D530BD45-A856-427D-83A9-5E2A428A30FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3183,7 +3183,7 @@
         <v>99</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3197,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
@@ -3211,7 +3211,7 @@
         <v>101</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
@@ -3225,7 +3225,7 @@
         <v>102</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D530BD45-A856-427D-83A9-5E2A428A30FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B573C4E-FEF6-43E2-9668-DACCFD82048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3239,7 +3239,7 @@
         <v>103</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B573C4E-FEF6-43E2-9668-DACCFD82048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEACFAE9-572C-46E5-A25A-C66C2D1BA94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3253,7 +3253,7 @@
         <v>104</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
@@ -3267,7 +3267,7 @@
         <v>105</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3281,7 +3281,7 @@
         <v>106</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3295,7 +3295,7 @@
         <v>107</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
@@ -3309,7 +3309,7 @@
         <v>108</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
@@ -3323,7 +3323,7 @@
         <v>109</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEACFAE9-572C-46E5-A25A-C66C2D1BA94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641984EE-DD31-4255-8401-BADCB3FC0DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3337,7 +3337,7 @@
         <v>110</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641984EE-DD31-4255-8401-BADCB3FC0DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD62D0AF-B60E-42A2-B7EA-018D3658AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3351,7 +3351,7 @@
         <v>111</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="21">
@@ -3365,7 +3365,7 @@
         <v>112</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="21">
@@ -3379,7 +3379,7 @@
         <v>113</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD62D0AF-B60E-42A2-B7EA-018D3658AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF0456-F3E1-4D75-81AE-ABF125FDC43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3393,7 +3393,7 @@
         <v>114</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="21">
@@ -3407,7 +3407,7 @@
         <v>115</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
@@ -3421,7 +3421,7 @@
         <v>116</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF0456-F3E1-4D75-81AE-ABF125FDC43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1CC809-7A28-4E53-A575-04485BC77A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3435,7 +3435,7 @@
         <v>117</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="21">
@@ -3449,7 +3449,7 @@
         <v>118</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="21">
@@ -3463,7 +3463,7 @@
         <v>119</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="21">
@@ -3477,7 +3477,7 @@
         <v>120</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21">
@@ -3491,7 +3491,7 @@
         <v>121</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21">
@@ -3505,7 +3505,7 @@
         <v>122</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21">
@@ -3519,7 +3519,7 @@
         <v>123</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21">
@@ -3533,7 +3533,7 @@
         <v>124</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21">
@@ -3547,7 +3547,7 @@
         <v>125</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="21">
@@ -3561,7 +3561,7 @@
         <v>126</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="21">
@@ -3575,7 +3575,7 @@
         <v>127</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="21">
@@ -3589,7 +3589,7 @@
         <v>128</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="21">
@@ -3603,7 +3603,7 @@
         <v>129</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="21">
@@ -3617,7 +3617,7 @@
         <v>130</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21">
@@ -3631,7 +3631,7 @@
         <v>131</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21">
@@ -3645,7 +3645,7 @@
         <v>132</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swarn\Desktop\Interview Prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1CC809-7A28-4E53-A575-04485BC77A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD215F-0B14-43FF-9FCB-01A8026A49B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3649,9 +3649,6 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="21">
-      <c r="A136">
-        <v>124</v>
-      </c>
       <c r="B136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>133</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21">
@@ -3668,7 +3665,7 @@
     </row>
     <row r="139" spans="1:4" ht="21">
       <c r="A139">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>134</v>
@@ -3677,12 +3674,12 @@
         <v>135</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="21">
       <c r="A140">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>134</v>
@@ -3691,12 +3688,12 @@
         <v>136</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21">
       <c r="A141">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>134</v>
@@ -3705,12 +3702,12 @@
         <v>137</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="21">
       <c r="A142">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>134</v>
@@ -3719,12 +3716,12 @@
         <v>138</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="21">
       <c r="A143">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>134</v>
@@ -3733,12 +3730,12 @@
         <v>139</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="21">
       <c r="A144">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B144" s="8" t="s">
         <v>134</v>
@@ -3747,12 +3744,12 @@
         <v>140</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="21">
       <c r="A145">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>134</v>
@@ -3761,12 +3758,12 @@
         <v>141</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="21">
       <c r="A146">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>134</v>
@@ -3775,12 +3772,12 @@
         <v>142</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="21">
       <c r="A147">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>134</v>
@@ -3789,12 +3786,12 @@
         <v>143</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="21">
       <c r="A148">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>134</v>
@@ -3803,12 +3800,12 @@
         <v>144</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="21">
       <c r="A149">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>134</v>
@@ -3817,12 +3814,12 @@
         <v>145</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="21">
       <c r="A150">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B150" s="8" t="s">
         <v>134</v>
@@ -3831,12 +3828,12 @@
         <v>146</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="21">
       <c r="A151">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>134</v>
@@ -3845,12 +3842,12 @@
         <v>147</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="21">
       <c r="A152">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>134</v>
@@ -3859,12 +3856,12 @@
         <v>148</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="21">
       <c r="A153">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>134</v>
@@ -3873,12 +3870,12 @@
         <v>149</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="21">
       <c r="A154">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>134</v>
@@ -3887,12 +3884,12 @@
         <v>150</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="21">
       <c r="A155">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>134</v>
@@ -3901,12 +3898,12 @@
         <v>151</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="21">
       <c r="A156">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>134</v>
@@ -3920,7 +3917,7 @@
     </row>
     <row r="157" spans="1:4" ht="21">
       <c r="A157">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>134</v>
@@ -3934,7 +3931,7 @@
     </row>
     <row r="158" spans="1:4" ht="21">
       <c r="A158">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>134</v>
@@ -3948,7 +3945,7 @@
     </row>
     <row r="159" spans="1:4" ht="21">
       <c r="A159">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>134</v>
@@ -3962,7 +3959,7 @@
     </row>
     <row r="160" spans="1:4" ht="21">
       <c r="A160">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>134</v>
@@ -3976,7 +3973,7 @@
     </row>
     <row r="161" spans="1:4" ht="21">
       <c r="A161">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>134</v>
@@ -3990,7 +3987,7 @@
     </row>
     <row r="162" spans="1:4" ht="21">
       <c r="A162">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>134</v>
@@ -4004,7 +4001,7 @@
     </row>
     <row r="163" spans="1:4" ht="21">
       <c r="A163">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>134</v>
@@ -4018,7 +4015,7 @@
     </row>
     <row r="164" spans="1:4" ht="21">
       <c r="A164">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>134</v>
@@ -4032,7 +4029,7 @@
     </row>
     <row r="165" spans="1:4" ht="21">
       <c r="A165">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>134</v>
@@ -4046,7 +4043,7 @@
     </row>
     <row r="166" spans="1:4" ht="21">
       <c r="A166">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>134</v>
@@ -4060,7 +4057,7 @@
     </row>
     <row r="167" spans="1:4" ht="21">
       <c r="A167">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>134</v>
@@ -4074,7 +4071,7 @@
     </row>
     <row r="168" spans="1:4" ht="21">
       <c r="A168">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>134</v>
@@ -4088,7 +4085,7 @@
     </row>
     <row r="169" spans="1:4" ht="21">
       <c r="A169">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>134</v>
@@ -4102,7 +4099,7 @@
     </row>
     <row r="170" spans="1:4" ht="21">
       <c r="A170">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>134</v>
@@ -4116,7 +4113,7 @@
     </row>
     <row r="171" spans="1:4" ht="21">
       <c r="A171">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>134</v>
@@ -4130,7 +4127,7 @@
     </row>
     <row r="172" spans="1:4" ht="21">
       <c r="A172">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>134</v>
@@ -4144,7 +4141,7 @@
     </row>
     <row r="173" spans="1:4" ht="21">
       <c r="A173">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>134</v>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="174" spans="1:4" ht="21">
       <c r="A174">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>134</v>
